--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2426624.923432469</v>
+        <v>2510811.941507807</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903706</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768291</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6543363.398338703</v>
+        <v>6734281.488510498</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>174.6516693167784</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>170.1019635509678</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.9719062511815</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>180.9481501102975</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -896,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>140.8747407686506</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>185.8286068973425</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.07668889684891</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1069,7 +1071,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>70.19744354481713</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1196,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>357.5336090740636</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -1306,10 +1308,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.7039723376027</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>235.9555392828263</v>
+        <v>360.2718058255109</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1385,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1433,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>102.4311969685998</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>193.5927947728081</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>356.9098154350793</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1622,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1670,10 +1672,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>364.3496512859388</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1767,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>101.2428681214947</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507901</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>212.4250515358844</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2002,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>146.2057167060759</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>37.02909428051581</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798618</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>187.697106645812</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.42227043795236</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>152.0366046803099</v>
       </c>
       <c r="V22" t="n">
-        <v>177.1683574216377</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2318,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2488,10 +2490,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>155.2679888015131</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>38.60758992810494</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4066896505621</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2719,7 +2721,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>92.50759523242</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2731,7 +2733,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>58.11593919665176</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2950,13 +2952,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>136.0749498113911</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>47.64512042712315</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>7.620184318178564</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>271.0770354214532</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3272,19 +3274,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>372.3536886992978</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>43.73227063629162</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>21.4408878236093</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3518,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="39">
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3721,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>143.1974930458133</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>364.0541325806442</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3755,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3791,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>53.99445917600121</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.49092454843227</v>
+        <v>258.5941394566742</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3980,22 +3982,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>324.1392862855851</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>159.3854280103019</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4150,10 +4152,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.235895272200826</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.855757598208</v>
+        <v>1689.631969834256</v>
       </c>
       <c r="C2" t="n">
-        <v>1135.731166911478</v>
+        <v>1683.54778318793</v>
       </c>
       <c r="D2" t="n">
-        <v>731.2672370045384</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E2" t="n">
-        <v>720.9674255618391</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F2" t="n">
-        <v>299.9370135155267</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4331,49 +4333,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
         <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1552.036533222293</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184966</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>526.8016713277814</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C4" t="n">
-        <v>526.8016713277814</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D4" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
         <v>41.76508562960205</v>
@@ -4513,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1101.974066676486</v>
+        <v>1388.388073048131</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.974066676486</v>
+        <v>1114.502327987653</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.974066676486</v>
+        <v>835.4326634965275</v>
       </c>
       <c r="X4" t="n">
-        <v>863.6302045361697</v>
+        <v>597.0888013562109</v>
       </c>
       <c r="Y4" t="n">
-        <v>638.8945059249344</v>
+        <v>372.3531027449756</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.329212244076</v>
+        <v>570.6426643811656</v>
       </c>
       <c r="C5" t="n">
-        <v>1014.24502559775</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D5" t="n">
-        <v>1013.821499731214</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4571,46 +4573,46 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1765.267542741534</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.193789739612</v>
+        <v>1381.507241876702</v>
       </c>
       <c r="X5" t="n">
-        <v>1430.550391908565</v>
+        <v>980.863844045655</v>
       </c>
       <c r="Y5" t="n">
-        <v>1430.550391908565</v>
+        <v>980.863844045655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1192.007362767164</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767164</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.1412472705574</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>533.1412472705574</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>373.6466025934674</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4756,19 +4758,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.365834796576</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1014.480089736098</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1014.480089736098</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>776.1362275957815</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.4005289845462</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.25049765783463</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>74.16631101150881</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>4039.055788355275</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>1882.066697643075</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>1625.006205902585</v>
+        <v>4043.825781627948</v>
       </c>
       <c r="V8" t="n">
-        <v>1275.168651239065</v>
+        <v>3693.988226964429</v>
       </c>
       <c r="W8" t="n">
-        <v>891.408350374234</v>
+        <v>3310.227926099597</v>
       </c>
       <c r="X8" t="n">
-        <v>891.408350374234</v>
+        <v>2949.082866428826</v>
       </c>
       <c r="Y8" t="n">
-        <v>490.4716773223241</v>
+        <v>2548.146193376916</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>2933.227919404472</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>2799.232848153418</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>2682.33569037281</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>2561.842874365138</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>2452.882994547643</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>2345.892881861982</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>2275.145668897698</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>2254.397077517938</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>2447.209935080572</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>2447.209935080572</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922353</v>
+        <v>3108.29810699986</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585605</v>
+        <v>3951.275187694426</v>
       </c>
       <c r="N9" t="n">
-        <v>1268.263812524886</v>
+        <v>3951.275187694426</v>
       </c>
       <c r="O9" t="n">
-        <v>1268.263812524886</v>
+        <v>3951.275187694426</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796118</v>
+        <v>4271.326754005809</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>4271.326754005809</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>4192.896263482747</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>4033.554399669755</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>3836.203588807974</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>3622.492061801007</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>3409.258893537336</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>3232.932911676229</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>3073.530952040059</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>909.3980746782881</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>738.3047022400046</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>578.8100575629146</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>417.8992424312341</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>1560.177341823884</v>
       </c>
       <c r="X10" t="n">
-        <v>1332.820120110135</v>
+        <v>1321.833479683568</v>
       </c>
       <c r="Y10" t="n">
-        <v>1131.098935930739</v>
+        <v>1097.097781072333</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1406.338747386834</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1406.338747386834</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1406.338747386834</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>991.9985319037307</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>570.9681198574183</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>162.2398357502505</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.824445456356</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2334.005462094974</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2977.636318512079</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.79301643123</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2045.614349007255</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y11" t="n">
-        <v>1644.677675955345</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>736.976244986612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>736.976244986612</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N12" t="n">
-        <v>827.1547665207693</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1531.111857066664</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2092.817749555194</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2092.817749555194</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.8415741575409</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="C13" t="n">
-        <v>341.8415741575409</v>
+        <v>472.5502437872249</v>
       </c>
       <c r="D13" t="n">
-        <v>341.8415741575409</v>
+        <v>313.0555991101349</v>
       </c>
       <c r="E13" t="n">
-        <v>341.8415741575409</v>
+        <v>313.0555991101349</v>
       </c>
       <c r="F13" t="n">
-        <v>341.8415741575409</v>
+        <v>313.0555991101349</v>
       </c>
       <c r="G13" t="n">
-        <v>341.8415741575409</v>
+        <v>313.0555991101349</v>
       </c>
       <c r="H13" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V13" t="n">
-        <v>537.3898517058319</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W13" t="n">
-        <v>341.8415741575409</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X13" t="n">
-        <v>341.8415741575409</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y13" t="n">
-        <v>341.8415741575409</v>
+        <v>831.3433226195527</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2171.317642379712</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C14" t="n">
-        <v>1810.802677293774</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D14" t="n">
-        <v>1406.338747386834</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E14" t="n">
-        <v>991.9985319037307</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>570.9681198574183</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>162.2398357502505</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1092.116491399555</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1868.435082391309</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2621.616099029927</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3265.246955447032</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3572.197169313043</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3315.136677572553</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2965.299122909033</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2581.538822044202</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2581.538822044202</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y14" t="n">
-        <v>2581.538822044202</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>736.976244986612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>1579.953325681179</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.377268917824</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>991.6467561507416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>820.5533837124581</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>718.2878603574129</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>557.3770452257323</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>392.7459193363236</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>225.495528261867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.439124259352</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508965</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311475</v>
       </c>
       <c r="R16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311475</v>
       </c>
       <c r="S16" t="n">
-        <v>1418.895201568084</v>
+        <v>1622.642594311475</v>
       </c>
       <c r="T16" t="n">
-        <v>1179.346462544786</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U16" t="n">
-        <v>1179.346462544786</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V16" t="n">
-        <v>1179.346462544786</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W16" t="n">
-        <v>1179.346462544786</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X16" t="n">
-        <v>1179.346462544786</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y16" t="n">
-        <v>1179.346462544786</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2359.298219196301</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.173628509571</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
         <v>1734.602869382415</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3954.85977060858</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3571.099469743748</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.456071912701</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2769.519398860791</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>3276.783860599928</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>3396.521901496716</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>3396.521901496716</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>4100.47899204261</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>687.8603028290196</v>
+        <v>851.989530876386</v>
       </c>
       <c r="C19" t="n">
-        <v>516.7669303907361</v>
+        <v>851.989530876386</v>
       </c>
       <c r="D19" t="n">
-        <v>357.2722857136461</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>357.2722857136461</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>357.2722857136461</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>357.2722857136461</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1313.574982330908</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.295707834299</v>
+        <v>1039.68923727043</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.295707834299</v>
+        <v>1039.68923727043</v>
       </c>
       <c r="X19" t="n">
-        <v>1100.295707834299</v>
+        <v>1039.68923727043</v>
       </c>
       <c r="Y19" t="n">
-        <v>875.560009223064</v>
+        <v>1039.68923727043</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1509.855690915284</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4630.445217422097</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4408.238733368956</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4408.238733368956</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5840,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3410.042848937644</v>
+        <v>592.4982763350433</v>
       </c>
       <c r="C22" t="n">
-        <v>3410.042848937644</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="D22" t="n">
-        <v>3410.042848937644</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="E22" t="n">
-        <v>3249.132033805963</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F22" t="n">
-        <v>3249.132033805963</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T22" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U22" t="n">
-        <v>4294.114018752663</v>
+        <v>1383.797548026964</v>
       </c>
       <c r="V22" t="n">
-        <v>4115.15608196313</v>
+        <v>1109.911802966486</v>
       </c>
       <c r="W22" t="n">
-        <v>3836.086417472005</v>
+        <v>830.8421384753599</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.742555331688</v>
+        <v>592.4982763350433</v>
       </c>
       <c r="Y22" t="n">
-        <v>3597.742555331688</v>
+        <v>592.4982763350433</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
         <v>2052.715036606428</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N24" t="n">
-        <v>3958.227793985246</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>735.1166357135628</v>
+        <v>4105.773792315753</v>
       </c>
       <c r="C25" t="n">
-        <v>735.1166357135628</v>
+        <v>3934.680419877469</v>
       </c>
       <c r="D25" t="n">
-        <v>575.6219910364728</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="E25" t="n">
-        <v>414.7111759047922</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F25" t="n">
-        <v>250.0800500153835</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.702087168085</v>
+        <v>4623.187318947195</v>
       </c>
       <c r="U25" t="n">
-        <v>1196.702087168085</v>
+        <v>4623.187318947195</v>
       </c>
       <c r="V25" t="n">
-        <v>922.8163421076072</v>
+        <v>4623.187318947195</v>
       </c>
       <c r="W25" t="n">
-        <v>922.8163421076072</v>
+        <v>4344.117654456069</v>
       </c>
       <c r="X25" t="n">
-        <v>922.8163421076072</v>
+        <v>4105.773792315753</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.8163421076072</v>
+        <v>4105.773792315753</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6257,19 +6259,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6311,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.074801429505</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4164.476761201259</v>
+        <v>1115.108748246362</v>
       </c>
       <c r="C28" t="n">
-        <v>3993.383388762976</v>
+        <v>944.0153758080783</v>
       </c>
       <c r="D28" t="n">
-        <v>3833.888744085886</v>
+        <v>784.5207311309882</v>
       </c>
       <c r="E28" t="n">
-        <v>3672.977928954205</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>3508.346803064796</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>3341.09641199034</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>3191.488956795796</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>4576.912166206539</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V28" t="n">
-        <v>4576.912166206539</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W28" t="n">
-        <v>4576.912166206539</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X28" t="n">
-        <v>4576.912166206539</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="Y28" t="n">
-        <v>4352.176467595304</v>
+        <v>1115.108748246362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
         <v>1233.910891216385</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>828.5281599986358</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C31" t="n">
-        <v>828.5281599986358</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D31" t="n">
-        <v>828.5281599986358</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.369875986873</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.369875986873</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="U31" t="n">
-        <v>1254.571728532997</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="V31" t="n">
-        <v>1254.571728532997</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="W31" t="n">
-        <v>1254.571728532997</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="X31" t="n">
-        <v>1016.22786639268</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1016.22786639268</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>141.3700819604442</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6789,7 +6791,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3132.785987910289</v>
+        <v>415.1794346515229</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>415.1794346515229</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>415.1794346515229</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>415.1794346515229</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>250.5483087621142</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.820958213445</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V34" t="n">
-        <v>3874.935213152967</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W34" t="n">
-        <v>3595.865548661841</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X34" t="n">
-        <v>3357.521686521525</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y34" t="n">
-        <v>3132.785987910289</v>
+        <v>602.8791410455673</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7022,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N36" t="n">
         <v>1435.775802995229</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>431.5874612033629</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="C37" t="n">
-        <v>260.4940887650794</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="D37" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7120,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1600.985131863383</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1361.436392840085</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U37" t="n">
-        <v>1361.436392840085</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V37" t="n">
-        <v>1361.436392840085</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W37" t="n">
-        <v>1082.366728348959</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X37" t="n">
-        <v>844.0228662086425</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y37" t="n">
-        <v>619.2871675974072</v>
+        <v>137.4177084343517</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1230.796550638079</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>809.7661385917668</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>401.0378544845989</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7262,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V40" t="n">
-        <v>826.4099627738212</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W40" t="n">
-        <v>547.3402982826956</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="X40" t="n">
-        <v>308.996436142379</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1402.123122590461</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C41" t="n">
-        <v>991.9985319037307</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D41" t="n">
-        <v>991.9985319037307</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>991.9985319037307</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>570.9681198574183</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>162.2398357502505</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>75.88807306732367</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>730.3988389146983</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1506.717429906452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3604.582720406748</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3347.522228666258</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2997.684674002739</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2613.924373137907</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2213.28097530686</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>1812.34430225495</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>544.7620862603114</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1418.420178371929</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>246.9814455056072</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="C43" t="n">
-        <v>75.88807306732367</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D43" t="n">
-        <v>75.88807306732367</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E43" t="n">
-        <v>75.88807306732367</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F43" t="n">
-        <v>75.88807306732367</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1418.895201568084</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1179.346462544786</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1179.346462544786</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>1176.830377142329</v>
+        <v>1361.436392840085</v>
       </c>
       <c r="W43" t="n">
-        <v>897.7607126512034</v>
+        <v>1082.366728348959</v>
       </c>
       <c r="X43" t="n">
-        <v>659.4168505108869</v>
+        <v>844.0228662086425</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.6811518996516</v>
+        <v>619.2871675974072</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1234.456496290856</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>824.3319056041261</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>824.3319056041261</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>824.3319056041261</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F44" t="n">
-        <v>403.3014935578136</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>75.88807306732367</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>788.4794728795617</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1564.798063871316</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2317.979080509934</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2961.609936927039</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3490.76663484619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.614349007255</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1644.677675955345</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>724.5071868952557</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>724.5071868952557</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1567.484267589822</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>1567.484267589822</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>1567.484267589822</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1742.97328487121</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2092.817749555194</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>578.8629624694724</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>407.769590031189</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>407.769590031189</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>407.769590031189</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>243.1384641417803</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>75.88807306732367</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1601.008287595042</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1414.616519474952</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1414.616519474952</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1131.818372021076</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>857.9326269605981</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W46" t="n">
-        <v>578.8629624694724</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X46" t="n">
-        <v>578.8629624694724</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y46" t="n">
-        <v>578.8629624694724</v>
+        <v>1343.572929820347</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>332.4660540393957</v>
+        <v>96.67425672622875</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
@@ -8079,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,7 +8221,7 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>496.3946935832877</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -8228,7 +8230,7 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
@@ -8237,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>562.8045877599699</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>93.75312630912927</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>296.1630732760186</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>313.5427330088476</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8535,25 +8537,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>529.1545888121294</v>
+        <v>377.5440454183416</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8708,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>339.5832905056053</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8772,25 +8774,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N12" t="n">
-        <v>144.282809084818</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>321.6302927653073</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8945,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>601.0963663600579</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9246,19 +9248,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>178.5117997957794</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9486,16 +9488,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>846.2776300172818</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9720,13 +9722,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533856</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
@@ -9957,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10437,10 +10439,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10668,13 +10670,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10908,13 +10910,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>361.079260496652</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -10923,7 +10925,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>756.6073837672636</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11145,10 +11147,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747686</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11315,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>355.7715547329183</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -11385,19 +11387,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
-        <v>231.5212686203672</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.1634285850183</v>
+        <v>45.84716204233371</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23431,7 +23433,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>45.68018367399807</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.68617307340625</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>49.11352934478327</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>32.28731256679822</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>56.65683010882437</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23701,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>194.7158398879859</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>187.9942390719856</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.905663936521961</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>242.9410716988213</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23956,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>222.4997066824602</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.5059940158878</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24139,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>127.9335612990272</v>
       </c>
       <c r="V22" t="n">
-        <v>93.97853018823554</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.30989836219894</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24412,22 +24414,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>198.54566170496</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,7 +24499,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>3.083197172522915</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>66.79411174794372</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>57.06664624006535</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24655,7 +24657,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>23.2267571689726</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.066646240065</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -24892,7 +24894,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>37.84312462897442</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25084,13 +25086,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>157.9577028455334</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25126,16 +25128,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>8.893130557883865</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>114.1674275940275</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25324,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25360,16 +25362,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>163.0869626152795</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="39">
@@ -25561,10 +25563,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.081474800401</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>165.9899600366086</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25834,16 +25836,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>268.655963061441</v>
+        <v>12.55274815319905</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>80.50171498051105</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>26.43728131980203</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.18409586915352</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>499473.3856829716</v>
+        <v>564814.9016934327</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>499473.3856829714</v>
+        <v>564814.9016934328</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>564814.9016934328</v>
+        <v>564814.9016934327</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499473.3856829717</v>
+        <v>564814.9016934327</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499473.3856829716</v>
+        <v>564814.9016934327</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>504935.4184006166</v>
       </c>
       <c r="C2" t="n">
-        <v>504935.4184006166</v>
+        <v>504935.4184006168</v>
       </c>
       <c r="D2" t="n">
         <v>504935.4184006167</v>
       </c>
       <c r="E2" t="n">
-        <v>397017.3065685162</v>
+        <v>448955.4346793955</v>
       </c>
       <c r="F2" t="n">
-        <v>397017.3065685162</v>
+        <v>448955.4346793956</v>
       </c>
       <c r="G2" t="n">
-        <v>448955.4346793955</v>
+        <v>448955.4346793954</v>
       </c>
       <c r="H2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="I2" t="n">
-        <v>448955.4346793956</v>
+        <v>448955.4346793954</v>
       </c>
       <c r="J2" t="n">
+        <v>448955.4346793955</v>
+      </c>
+      <c r="K2" t="n">
         <v>448955.4346793954</v>
-      </c>
-      <c r="K2" t="n">
-        <v>448955.4346793955</v>
       </c>
       <c r="L2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="M2" t="n">
+        <v>448955.4346793954</v>
+      </c>
+      <c r="N2" t="n">
+        <v>448955.4346793953</v>
+      </c>
+      <c r="O2" t="n">
         <v>448955.4346793955</v>
       </c>
-      <c r="N2" t="n">
-        <v>448955.4346793955</v>
-      </c>
-      <c r="O2" t="n">
-        <v>397017.3065685161</v>
-      </c>
       <c r="P2" t="n">
-        <v>397017.3065685162</v>
+        <v>448955.4346793953</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>155118.3712081971</v>
+        <v>57848.94447198565</v>
       </c>
       <c r="E4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446826</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446826</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
@@ -26454,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>109492.4722208079</v>
       </c>
       <c r="C6" t="n">
-        <v>284447.9821139219</v>
+        <v>284447.9821139221</v>
       </c>
       <c r="D6" t="n">
-        <v>284447.982113922</v>
+        <v>176257.9336633623</v>
       </c>
       <c r="E6" t="n">
-        <v>211352.1427996985</v>
+        <v>350383.1423234433</v>
       </c>
       <c r="F6" t="n">
-        <v>338706.8095894491</v>
+        <v>377352.0965043776</v>
       </c>
       <c r="G6" t="n">
-        <v>317890.6418184157</v>
+        <v>377352.0965043774</v>
       </c>
       <c r="H6" t="n">
         <v>377352.0965043775</v>
       </c>
       <c r="I6" t="n">
+        <v>377352.0965043774</v>
+      </c>
+      <c r="J6" t="n">
+        <v>240757.2956984825</v>
+      </c>
+      <c r="K6" t="n">
+        <v>377352.0965043774</v>
+      </c>
+      <c r="L6" t="n">
+        <v>237352.7856396248</v>
+      </c>
+      <c r="M6" t="n">
+        <v>354842.83173033</v>
+      </c>
+      <c r="N6" t="n">
+        <v>377352.0965043774</v>
+      </c>
+      <c r="O6" t="n">
         <v>377352.0965043776</v>
       </c>
-      <c r="J6" t="n">
-        <v>240757.2956984824</v>
-      </c>
-      <c r="K6" t="n">
-        <v>377352.0965043775</v>
-      </c>
-      <c r="L6" t="n">
-        <v>377352.0965043775</v>
-      </c>
-      <c r="M6" t="n">
-        <v>271057.2844865028</v>
-      </c>
-      <c r="N6" t="n">
-        <v>377352.0965043776</v>
-      </c>
-      <c r="O6" t="n">
-        <v>338706.809589449</v>
-      </c>
       <c r="P6" t="n">
-        <v>338706.8095894491</v>
+        <v>377352.0965043774</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>231.4672985510662</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>234.5390377151283</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27445,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.85080307892248</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27585,19 +27587,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>99.02201586903962</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>269.3220725596217</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>160.5105722195416</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167.746020433255</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27828,16 +27830,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>149.7869756677926</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>39.10335477867335</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.78436928752021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>135.5987266329976</v>
-      </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>276.3515302285466</v>
+        <v>40.55973291537969</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34939,7 +34941,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
@@ -34957,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>203.2507825193993</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>223.5089286096956</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>474.8949538093257</v>
+        <v>323.2844104155378</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35428,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.5494861064533</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
-        <v>91.089415691068</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>226.1448947024625</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35665,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>547.902972966308</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>283.67553777197</v>
       </c>
       <c r="O16" t="n">
-        <v>262.1824346732062</v>
+        <v>262.1824346732088</v>
       </c>
       <c r="P16" t="n">
         <v>207.7529699491034</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>120.947516057362</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
         <v>534.50171506985</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>788.7133462788644</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37157,10 +37159,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37555,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>303.327781496652</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L41" t="n">
-        <v>661.1219857044188</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363513</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38035,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>265.7377503337663</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
-        <v>177.2616336175634</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2510811.941507807</v>
+        <v>2509499.296052226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.6516693167784</v>
+        <v>157.2254927596815</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -679,7 +679,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>83.76217398785592</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>180.9481501102975</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>397.8887030332876</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>185.8286068973425</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>68.09295918562064</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>142.5359303380062</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1144,10 +1144,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>11.62496282097257</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1198,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>357.5336090740636</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1293,19 +1293,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>54.68688746169084</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.2718058255109</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>222.2025742562865</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1426,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1533,22 +1533,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>102.4311969685998</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>29.16604059314784</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1612,10 +1612,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1666,13 +1666,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>304.2743438296833</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>364.3496512859388</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1767,16 +1767,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>42.43741174507901</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>217.9067214843363</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>343.4619167409753</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11.26470041946552</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>37.02909428051581</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798618</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>187.697106645812</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>194.3204012433884</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>152.0366046803099</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>38.67101583915255</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>174.4275996389298</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2493,7 +2493,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>39.42235936316055</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>38.60758992810494</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2572,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>271.4342543713333</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>5.610824918537475</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>92.50759523242</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2730,10 +2730,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>362.5761659788956</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.35334490128935</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>187.0564765620289</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>399.5401116061838</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>47.64512042712315</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>7.620184318178564</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>174.2733586257883</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3274,13 +3274,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>372.3536886992978</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3319,7 +3319,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>174.1372571702753</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>39.48355604981401</v>
       </c>
       <c r="D37" t="n">
-        <v>43.73227063629162</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>275.5120998317608</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.93142548241784</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>136.1547980626192</v>
       </c>
       <c r="W40" t="n">
-        <v>143.1974930458133</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>364.0541325806442</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3793,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>194.3204012433882</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>258.5941394566742</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>41.24458363092516</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3982,13 +3982,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>354.5721285655368</v>
       </c>
       <c r="E44" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>43.42246573224587</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.631969834256</v>
+        <v>795.1993990705208</v>
       </c>
       <c r="C2" t="n">
-        <v>1683.54778318793</v>
+        <v>789.115212424195</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.08385328099</v>
+        <v>788.6916865576595</v>
       </c>
       <c r="E2" t="n">
-        <v>864.7436377978871</v>
+        <v>778.3918751149603</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,19 +4333,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1866.047797426961</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W2" t="n">
-        <v>1866.047797426961</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X2" t="n">
-        <v>1866.047797426961</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1866.047797426961</v>
+        <v>954.0130281207041</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>537.7254774811266</v>
+        <v>497.571341894901</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3531027449756</v>
+        <v>126.3733421829919</v>
       </c>
       <c r="C4" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1388.388073048131</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.502327987653</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W4" t="n">
-        <v>835.4326634965275</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X4" t="n">
-        <v>597.0888013562109</v>
+        <v>538.8087471882716</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.3531027449756</v>
+        <v>314.0730485770363</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>570.6426643811656</v>
+        <v>869.2086745340351</v>
       </c>
       <c r="C5" t="n">
-        <v>160.5180736944356</v>
+        <v>863.1244878877093</v>
       </c>
       <c r="D5" t="n">
-        <v>160.0945478279002</v>
+        <v>458.6605579807698</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>448.3607465380705</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4573,19 +4573,19 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>812.7934917636817</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1765.267542741534</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>1381.507241876702</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X5" t="n">
-        <v>980.863844045655</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y5" t="n">
-        <v>980.863844045655</v>
+        <v>875.3894501581206</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1014.752890035065</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C7" t="n">
-        <v>843.6595175967814</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D7" t="n">
-        <v>684.1648729196913</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E7" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1502.38321539629</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1502.38321539629</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1219.585067942414</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="X7" t="n">
-        <v>1427.188295040345</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="Y7" t="n">
-        <v>1202.452596429109</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>926.3505956994404</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>512.0103802163371</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>495.0203722104287</v>
       </c>
       <c r="G8" t="n">
         <v>483.2779855225776</v>
@@ -4804,25 +4804,25 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736876</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>624.1772265764083</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1336.768626388646</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2113.0872173804</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2866.268234019018</v>
+        <v>3087.542073342617</v>
       </c>
       <c r="O8" t="n">
-        <v>3509.899090436123</v>
+        <v>3731.172929759722</v>
       </c>
       <c r="P8" t="n">
-        <v>4039.055788355275</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="Q8" t="n">
         <v>4260.329627678873</v>
@@ -4831,25 +4831,25 @@
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368438</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368438</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4043.825781627948</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3693.988226964429</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3310.227926099597</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2949.082866428826</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2548.146193376916</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2933.227919404472</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>2799.232848153418</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>2682.33569037281</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>2561.842874365138</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>2452.882994547643</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>2345.892881861982</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>2275.145668897698</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>2254.397077517938</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>2447.209935080572</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>2447.209935080572</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>3108.29810699986</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>3951.275187694426</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>3951.275187694426</v>
+        <v>747.105897386657</v>
       </c>
       <c r="O9" t="n">
-        <v>3951.275187694426</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>4271.326754005809</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>4271.326754005809</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>4300.886273368438</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>4192.896263482747</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>4033.554399669755</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>3836.203588807974</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>3622.492061801007</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>3409.258893537336</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>3232.932911676229</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>3073.530952040059</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>909.3980746782881</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>738.3047022400046</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>578.8100575629146</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>417.8992424312341</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>253.2681165418253</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
         <v>86.01772546736876</v>
@@ -4992,22 +4992,22 @@
         <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.416622088219</v>
+        <v>1572.550549618445</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.416622088219</v>
+        <v>1289.752402164569</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.416622088219</v>
+        <v>1015.866657104091</v>
       </c>
       <c r="W10" t="n">
-        <v>1560.177341823884</v>
+        <v>736.7969926129651</v>
       </c>
       <c r="X10" t="n">
-        <v>1321.833479683568</v>
+        <v>498.4531304726485</v>
       </c>
       <c r="Y10" t="n">
-        <v>1097.097781072333</v>
+        <v>273.7174318614132</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E11" t="n">
         <v>1320.262653899312</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X11" t="n">
-        <v>3314.038978003258</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y11" t="n">
-        <v>2913.102304951348</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>643.6436162255084</v>
+        <v>428.968196018315</v>
       </c>
       <c r="C13" t="n">
-        <v>472.5502437872249</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D13" t="n">
-        <v>313.0555991101349</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>313.0555991101349</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>313.0555991101349</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0555991101349</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V13" t="n">
-        <v>1348.756849250995</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W13" t="n">
-        <v>1069.687184759869</v>
+        <v>1079.747463163911</v>
       </c>
       <c r="X13" t="n">
-        <v>831.3433226195527</v>
+        <v>841.4036010235948</v>
       </c>
       <c r="Y13" t="n">
-        <v>831.3433226195527</v>
+        <v>616.6679024123595</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2134.851174492981</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C14" t="n">
-        <v>1724.726583806251</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
         <v>1320.262653899312</v>
@@ -5314,16 +5314,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3740.289011481424</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X14" t="n">
-        <v>2946.009027209381</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y14" t="n">
-        <v>2545.072354157471</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
         <v>2139.732893541123</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F16" t="n">
         <v>93.2436976906228</v>
@@ -5451,37 +5451,37 @@
         <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1351.439124259352</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1557.114564508965</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1622.642594311475</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1622.642594311475</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311475</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1579.776521841699</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U16" t="n">
-        <v>1296.978374387823</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V16" t="n">
-        <v>1023.092629327345</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W16" t="n">
-        <v>744.0229648362191</v>
+        <v>1157.181161700257</v>
       </c>
       <c r="X16" t="n">
-        <v>505.6791026959025</v>
+        <v>1157.181161700257</v>
       </c>
       <c r="Y16" t="n">
-        <v>280.9434040846672</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C17" t="n">
         <v>2139.066799289355</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>851.989530876386</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="C19" t="n">
-        <v>851.989530876386</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E19" t="n">
         <v>691.0787157447054</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1313.574982330908</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1039.68923727043</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W19" t="n">
-        <v>1039.68923727043</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X19" t="n">
-        <v>1039.68923727043</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="Y19" t="n">
-        <v>1039.68923727043</v>
+        <v>861.9518456939827</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1914.319620822223</v>
       </c>
       <c r="D20" t="n">
-        <v>1509.855690915284</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F20" t="n">
         <v>899.2322418529996</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5831,19 +5831,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>179.8613846619692</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>592.4982763350433</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="C22" t="n">
-        <v>421.4049038967599</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D22" t="n">
-        <v>421.4049038967599</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E22" t="n">
-        <v>260.4940887650794</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>1383.797548026964</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V22" t="n">
-        <v>1109.911802966486</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W22" t="n">
-        <v>830.8421384753599</v>
+        <v>883.2954166397794</v>
       </c>
       <c r="X22" t="n">
-        <v>592.4982763350433</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="Y22" t="n">
-        <v>592.4982763350433</v>
+        <v>844.2337844790193</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>592.7987223006619</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4105.773792315753</v>
+        <v>636.0391521060651</v>
       </c>
       <c r="C25" t="n">
-        <v>3934.680419877469</v>
+        <v>464.9457796677816</v>
       </c>
       <c r="D25" t="n">
-        <v>3775.185775200379</v>
+        <v>464.9457796677816</v>
       </c>
       <c r="E25" t="n">
-        <v>3614.274960068698</v>
+        <v>464.9457796677816</v>
       </c>
       <c r="F25" t="n">
-        <v>3449.64383417929</v>
+        <v>300.3146537783729</v>
       </c>
       <c r="G25" t="n">
-        <v>3282.393443104833</v>
+        <v>133.0642627039163</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>4623.187318947195</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>4623.187318947195</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V25" t="n">
-        <v>4623.187318947195</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W25" t="n">
-        <v>4344.117654456069</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="X25" t="n">
-        <v>4105.773792315753</v>
+        <v>636.0391521060651</v>
       </c>
       <c r="Y25" t="n">
-        <v>4105.773792315753</v>
+        <v>636.0391521060651</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1115.108748246362</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="C28" t="n">
-        <v>944.0153758080783</v>
+        <v>584.619859331578</v>
       </c>
       <c r="D28" t="n">
-        <v>784.5207311309882</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.844446857597</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>1339.844446857597</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.844446857597</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X28" t="n">
-        <v>1339.844446857597</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="Y28" t="n">
-        <v>1115.108748246362</v>
+        <v>590.2873592492926</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4634.555243216706</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4634.555243216706</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T31" t="n">
-        <v>4634.555243216706</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U31" t="n">
-        <v>4634.555243216706</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V31" t="n">
-        <v>4634.555243216706</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="W31" t="n">
-        <v>4634.555243216706</v>
+        <v>1018.751472472449</v>
       </c>
       <c r="X31" t="n">
-        <v>4634.555243216706</v>
+        <v>780.4076103321324</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>591.4616744108911</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>452.2785793327262</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>141.3700819604442</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6736,16 +6736,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.1794346515229</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="C34" t="n">
-        <v>415.1794346515229</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="D34" t="n">
-        <v>415.1794346515229</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E34" t="n">
-        <v>415.1794346515229</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F34" t="n">
-        <v>250.5483087621142</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G34" t="n">
         <v>242.8511528851661</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V34" t="n">
-        <v>1065.958701797119</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="W34" t="n">
-        <v>1065.958701797119</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="X34" t="n">
-        <v>827.6148396568026</v>
+        <v>799.4683684602668</v>
       </c>
       <c r="Y34" t="n">
-        <v>602.8791410455673</v>
+        <v>574.7326698490315</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>866.6187948158295</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
         <v>490.5039577458317</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4351.007589961326</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.4177084343517</v>
+        <v>457.2518481054185</v>
       </c>
       <c r="C37" t="n">
-        <v>137.4177084343517</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7128,19 +7128,19 @@
         <v>1436.250826191383</v>
       </c>
       <c r="U37" t="n">
-        <v>1153.452678737507</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V37" t="n">
-        <v>879.5669336770293</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W37" t="n">
-        <v>600.4972691859036</v>
+        <v>883.2954166397794</v>
       </c>
       <c r="X37" t="n">
-        <v>362.153407045587</v>
+        <v>644.9515544994629</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.4177084343517</v>
+        <v>644.9515544994629</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7219,7 +7219,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>410.1015439596227</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="C40" t="n">
-        <v>410.1015439596227</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D40" t="n">
-        <v>410.1015439596227</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1015439596227</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F40" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1015.922579684357</v>
       </c>
       <c r="W40" t="n">
-        <v>410.1015439596227</v>
+        <v>1015.922579684357</v>
       </c>
       <c r="X40" t="n">
-        <v>410.1015439596227</v>
+        <v>777.5787175440399</v>
       </c>
       <c r="Y40" t="n">
-        <v>410.1015439596227</v>
+        <v>777.5787175440399</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2512.458907120301</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C41" t="n">
-        <v>2102.334316433571</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F41" t="n">
         <v>899.2322418529996</v>
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4330.62057574606</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="42">
@@ -7490,19 +7490,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O42" t="n">
         <v>2139.732893541123</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>431.5874612033629</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
         <v>93.2436976906228</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1361.436392840085</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>1082.366728348959</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>844.0228662086425</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y43" t="n">
-        <v>619.2871675974072</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
         <v>899.2322418529996</v>
@@ -7690,10 +7690,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
         <v>2139.732893541123</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1182.57754799176</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.484175553476</v>
+        <v>420.7012111579713</v>
       </c>
       <c r="D46" t="n">
-        <v>851.989530876386</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="E46" t="n">
-        <v>691.0787157447054</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
         <v>209.5897435862967</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W46" t="n">
-        <v>1343.572929820347</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X46" t="n">
-        <v>1343.572929820347</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y46" t="n">
-        <v>1343.572929820347</v>
+        <v>591.7945835962548</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>96.67425672622875</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>236.9512395019905</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,22 +8221,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>535.0653799235644</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8315,10 +8315,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8464,7 +8464,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>853.701196452193</v>
+        <v>820.4571235793086</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8473,7 +8473,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>313.5427330088476</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8540,19 +8540,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>506.5304157637051</v>
       </c>
       <c r="P9" t="n">
-        <v>377.5440454183416</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>560.7155587704844</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10606,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>745.8914891781321</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N42" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.84716204233371</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>45.68018367399807</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>247.1129272530665</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>42.06483528720082</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>32.28731256679822</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -23703,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>194.7158398879859</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>4.581620140786612</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>62.56142803888724</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>158.1177382944351</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>242.9410716988213</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>222.4997066824602</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>127.9335612990272</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>197.2894076797609</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>222.499706682461</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>108.6890212794374</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24414,13 +24414,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>198.54566170496</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>163.7716137953632</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>66.79411174794372</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>42.06483528720048</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.066646240065</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24900,13 +24900,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>35.43186506309399</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>10.65670172208848</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>37.84312462897442</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>157.9577028455334</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>61.68706489312518</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>45.84716204233442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>129.8988826640866</v>
       </c>
       <c r="D37" t="n">
-        <v>114.1674275940275</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25368,7 +25368,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>134.9920895472541</v>
       </c>
       <c r="W40" t="n">
-        <v>133.081474800401</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>25.66401796922159</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25800,7 +25800,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,19 +25839,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>12.55274815319905</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>194.7158398879883</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>45.8471620423332</v>
       </c>
       <c r="E44" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.4772324980732</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>564814.9016934328</v>
+        <v>564814.9016934327</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>564814.9016934327</v>
+        <v>564814.9016934326</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>564814.9016934325</v>
+        <v>564814.9016934326</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>564814.9016934327</v>
+        <v>564814.9016934326</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>564814.9016934327</v>
+        <v>564814.9016934326</v>
       </c>
     </row>
     <row r="14">
@@ -26316,7 +26316,7 @@
         <v>504935.4184006166</v>
       </c>
       <c r="C2" t="n">
-        <v>504935.4184006168</v>
+        <v>504935.4184006166</v>
       </c>
       <c r="D2" t="n">
         <v>504935.4184006167</v>
@@ -26325,37 +26325,37 @@
         <v>448955.4346793955</v>
       </c>
       <c r="F2" t="n">
-        <v>448955.4346793956</v>
+        <v>448955.4346793953</v>
       </c>
       <c r="G2" t="n">
-        <v>448955.4346793954</v>
+        <v>448955.4346793955</v>
       </c>
       <c r="H2" t="n">
+        <v>448955.4346793953</v>
+      </c>
+      <c r="I2" t="n">
         <v>448955.4346793955</v>
-      </c>
-      <c r="I2" t="n">
-        <v>448955.4346793954</v>
       </c>
       <c r="J2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="K2" t="n">
-        <v>448955.4346793954</v>
+        <v>448955.4346793953</v>
       </c>
       <c r="L2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="M2" t="n">
-        <v>448955.4346793954</v>
+        <v>448955.4346793953</v>
       </c>
       <c r="N2" t="n">
-        <v>448955.4346793953</v>
+        <v>448955.4346793956</v>
       </c>
       <c r="O2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="P2" t="n">
-        <v>448955.4346793953</v>
+        <v>448955.4346793956</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>57848.94447198565</v>
+        <v>57848.94447198567</v>
       </c>
       <c r="E4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>738.1279301446826</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
+        <v>738.1279301446465</v>
+      </c>
+      <c r="H4" t="n">
         <v>738.1279301446466</v>
-      </c>
-      <c r="H4" t="n">
-        <v>738.1279301446826</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
@@ -26450,7 +26450,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="N4" t="n">
         <v>738.1279301446466</v>
@@ -26524,46 +26524,46 @@
         <v>109492.4722208079</v>
       </c>
       <c r="C6" t="n">
-        <v>284447.9821139221</v>
+        <v>284447.9821139219</v>
       </c>
       <c r="D6" t="n">
         <v>176257.9336633623</v>
       </c>
       <c r="E6" t="n">
-        <v>350383.1423234433</v>
+        <v>350202.5617307942</v>
       </c>
       <c r="F6" t="n">
-        <v>377352.0965043776</v>
+        <v>377171.5159117283</v>
       </c>
       <c r="G6" t="n">
-        <v>377352.0965043774</v>
+        <v>377171.5159117284</v>
       </c>
       <c r="H6" t="n">
-        <v>377352.0965043775</v>
+        <v>377171.5159117282</v>
       </c>
       <c r="I6" t="n">
-        <v>377352.0965043774</v>
+        <v>377171.5159117284</v>
       </c>
       <c r="J6" t="n">
-        <v>240757.2956984825</v>
+        <v>240576.7151058335</v>
       </c>
       <c r="K6" t="n">
-        <v>377352.0965043774</v>
+        <v>377171.5159117283</v>
       </c>
       <c r="L6" t="n">
-        <v>237352.7856396248</v>
+        <v>237172.2050469757</v>
       </c>
       <c r="M6" t="n">
-        <v>354842.83173033</v>
+        <v>354662.2511376808</v>
       </c>
       <c r="N6" t="n">
-        <v>377352.0965043774</v>
+        <v>377171.5159117286</v>
       </c>
       <c r="O6" t="n">
-        <v>377352.0965043776</v>
+        <v>377171.5159117284</v>
       </c>
       <c r="P6" t="n">
-        <v>377352.0965043774</v>
+        <v>377171.5159117285</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.4672985510662</v>
+        <v>248.8934751081631</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>85.62026472604474</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>99.02201586903962</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>18.93140489256166</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>160.5105722195416</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27824,22 +27824,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>116.4348912532682</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>93.42449318090726</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>393.0160384451235</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>39.10335477867335</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28064,16 +28064,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>221.5920803845235</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>40.55973291537969</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>179.3869557635731</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>40.55973291537929</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35035,10 +35035,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35184,7 +35184,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>760.7889056955737</v>
+        <v>727.5448328226893</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35193,7 +35193,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>223.5089286096956</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>448.7789367637051</v>
       </c>
       <c r="P9" t="n">
-        <v>323.2844104155378</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35819,7 +35819,7 @@
         <v>283.67553777197</v>
       </c>
       <c r="O16" t="n">
-        <v>262.1824346732088</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P16" t="n">
         <v>207.7529699491034</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87.49261310237013</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>504.6010349596355</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>688.3272054397147</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N42" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
